--- a/Products_categories/Product_details.xlsx
+++ b/Products_categories/Product_details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="543">
   <si>
     <t>h1</t>
   </si>
@@ -851,9 +851,6 @@
   </si>
   <si>
     <t>Forever Marine Collagen</t>
-  </si>
-  <si>
-    <t>C9</t>
   </si>
   <si>
     <t>Алое вера притежава естествени изчистващи свойства, които помагат на храносмилателната система да усвоява полезните вещества от приеманите храни, като същевременно допринася и за растежа на полезните чревни бактерии. То е чудесно и за кожата, а уникалният полизахарид ацеманан и другите нутриенти в състава му допринасят за подкрепа на имунната система. Всъщност ацемананът е един от ключовите маркери, с който Международният научен съвет за алое определя качеството на алое вера. Гелът на Форевър съдържа близо два пъти по-високо количество от изискваното за сертифициране. Сега напитката съдържа и много витамин C, който пък допринася за нормалната функция на имунната система и за нормалното протичане на метаболизма и производството на енергия.
@@ -1259,32 +1256,6 @@
 Ако сте в движение, имате нужда от презареждане с енергия след тежка тренировка или просто искате да се насладите на вкусна следобедна закуска, Форевър фаст брейк е отличен избор за леко похапване с добавена стойност. Новият Фаст брейк е шоколадово-фъстъчен десерт, който засища и изпълва с енергия.</t>
   </si>
   <si>
-    <t>Всичко започва с нашата основополагаща програма C9, чиято цел е да ви освободи от натрупаните токсини и да ви помогне да се чувствате по-леки и по-жизнени. С 9-дневната програма ще поемете към своята по-здрава и по-елегантна същност. С лесен за спазване план, здравословни примерни ястия и рецепти за шейкове, с които да поставите основите за преобразяването си.  Пакетът C9 съдържа:
-Гел от алое вера (2 опаковки х 1 литър)
-Форевър лайт ултра шейк (1 плик, 15 порции)
-Форевър гарциния плюс (54 меки капсули)
-Форевър терм (18 таблетки)
-Форевър фибри (9 пакетчета)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАЧИНАЕЩИ
-Ако сте новаци във фитнеса и храненето, можете да започнете с първа и втора част на F15 за начинаещи. Овладейте основите на фитнеса с упражнения, използващи тежестта на тялото, базови движения и ключови кардио тренировки. Поставете основа с лесни указания за хранене и добавки, здравословни рецепти, продукти за контрол на теглото и важни съвети за начина ви на живот. Като например защо са полезни протеините и как да си приготвите по-добра закуска.
-СРЕДНО НАПРЕДНАЛИ
-Вече водите умерено активен живот и търсите начин да ускорите темпото? Изберете първа и втора част на F15 за средно напреднали. Режимът включва някои от любимите ви добавки на Форевър за контрол на теглото, нови здравословни рецепти, специално създадени упражнения, интервални тренировки и Ф.И.Т. йога. Програма F15 за средно напреднали ще ви помогне да преобразите тялото си и да изградите чиста мускулна маса. Ще разберете как ще ви помогнат силовите и високоинтензивните кардио тренировки. Ще научите как да постигнете трайна промяна със съвети за устояване на ненаситния апетит и за важната роля на съня за отслабването.
-НАПРЕДНАЛИ
-За активно спортуващите, които търсят по-добра програма за постигане на целите си, са първа и втора част на F15 за напреднали. Подчертайте релефа на мускулите си с целеви упражнения и по-сериозни кардио тренировки. С ценни съвети по теми като хранене според типа тяло и правилно разпределяне на порциите.
-Всеки от пакетите F15 съдържа:
-Гел от алое вера
-(2 опаковки х 1 литър)
-Форевър лайт ултра шейк
-(1 плик, 15 порции)
-Форевър гарциния плюс
-(90 меки капсули)
-Форевър терм (30 таблетки)
-Форевър фибри (15 пакетчета)
-</t>
-  </si>
-  <si>
     <t>Forever Therm Plus: стабилизатор (микрокристална целулоза), екстракт от листа на зелен чай (Camellia sinensis fol. extr.), екстракт от семена на гуарана (Guarana seed extr.) [кофеин, екстракт от гуарана], екстракт от зърна на кафе (Coffea Robusta), антислепващи агенти (магнезиев карбонат, стеаринова киселина, силициев диоксид), стабилизатор (напречно свързана целулозна гума), витамин C (l-аскорбинова киселина), глазиращи агенти [сгъстител (натриева карбокси метил целулоза), декстрин, декстроза, средноверижни триглицериди, регулатор на киселинността (тринатриев цитрат)], екстракт от цвят на шафран (Crocus sativus), ниацин (никотинамид), пантотенова киселина (d-калциев пантотенат), витамин D (холекалциферол), рибофлавин, тиамин (тиамин хидрохлорид), витамин B12 (цианокобаламин).
 Forever DuoPure: пълнител (дикалциев фосфат), стабилизатор (микрокристална целулоза), холин (l-холин битартрат), антислепващ агент (магнезиев оксид, стеаринова киселина, силициев диоксид), екстракт от нар (Punica granatum L.), стабилизатор (напречно свързана целулозна гума), глазиращ агент [сгъстител (натриева карбоксиметилцелулоза), декстрин, декстроза, средноверижни триглицериди, регулатор на киселинността (тринатриев цитрат)], алфа липоева киселина, витамин B6 (пиридоксин хидрохлорид), витамин B12 (цианокобаламин), фолиева киселина (птероилмоноглутаминова киселина), екстракт от корен на японска фалопия (Polygonum cuspidatum) (20% транс-ресвератрол).
 Forever MultiFizz: регулатор на киселинността (натриев бикарбонат, лимонена киселина, ябълчена киселина), аромат, оцветител (червено цвекло), витамин E (d-алфа токоферил ацетат), средноверижни триглицериди, сгъстител (микрокристална целулоза), витамин C (l-аскорбинова киселина), антислепващ агент (силициев диоксид, стеаринова киселина), подсладител (стевиол гликозиди), стабилизатор (напречно свързана целулозна гума), биотин (d-биотин), пантотенова киселина (d-калциев пантотенат), витамин B6 (пиридоксин хидрохлорид), рибофлавин, тиамин (тиамин хидрохлорид), витамин B12 (цианокобаламин), фолиева киселина (птероилмоноглутаминова киселина).
@@ -1538,15 +1509,6 @@
     <t xml:space="preserve">На сухо и хладно място. След отваряне съхранявайте опаковката изправена в хладилник (макс. 7°С) и консумирайте до 30 дни. </t>
   </si>
   <si>
-    <t>Клийн-9</t>
-  </si>
-  <si>
-    <t>Ф15 Начинаещи</t>
-  </si>
-  <si>
-    <t>F15 Beginner</t>
-  </si>
-  <si>
     <t>https://thealoeveraco.shop/MVdz18Km</t>
   </si>
   <si>
@@ -1787,20 +1749,281 @@
     <t>https://thealoeveraco.shop/wcHFYOEU</t>
   </si>
   <si>
-    <t>https://thealoeveraco.shop/jWd3NVr9</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/YJOzM5ye</t>
+    <t>Vital5/Aloe Vera Gel</t>
+  </si>
+  <si>
+    <t>Vital5/Aloe Berry Nectar</t>
+  </si>
+  <si>
+    <t>F15 Beginner/Chocolate</t>
+  </si>
+  <si>
+    <t>F15 Beginner/Vanilla</t>
+  </si>
+  <si>
+    <t>F15 Intermediate/Chocolate</t>
+  </si>
+  <si>
+    <t>F15 Intermediate/Vanilla</t>
+  </si>
+  <si>
+    <t>F15 Advanced/Chocolate</t>
+  </si>
+  <si>
+    <t>F15 Advanced/Vanilla</t>
+  </si>
+  <si>
+    <t>Clean-9/Gel-Vanilla</t>
+  </si>
+  <si>
+    <t>Clean-9/Gel-Chocolate</t>
+  </si>
+  <si>
+    <t>Clean-9/Berry-Vanilla</t>
+  </si>
+  <si>
+    <t>Clean-9/Berry-Chocolate</t>
+  </si>
+  <si>
+    <t>Clean-9/Peach-Vanilla</t>
+  </si>
+  <si>
+    <t>Clean-9/Peach-Chocolate</t>
+  </si>
+  <si>
+    <t>Витал 5/Алое Вера гел</t>
+  </si>
+  <si>
+    <t>Витал 5/Алое Бери нектар</t>
+  </si>
+  <si>
+    <t>Ф15 Начинаещи/Шоколад</t>
+  </si>
+  <si>
+    <t>Ф15 Начинаещи/Ванилия</t>
+  </si>
+  <si>
+    <t>Ф15 Средно напреднали/Шоколад</t>
+  </si>
+  <si>
+    <t>Ф15 Средно напреднали/Ванилия</t>
+  </si>
+  <si>
+    <t>Ф15 Напреднали/Шоколад</t>
+  </si>
+  <si>
+    <t>Ф15 Напреднали/Ванилия</t>
+  </si>
+  <si>
+    <t>Клийн-9/Алое Вера гел-Ванилия</t>
+  </si>
+  <si>
+    <t>Клийн-9/Алое Вера гел-Шоколад</t>
+  </si>
+  <si>
+    <t>Клийн-9/Алое Бери нектар-Ванилия</t>
+  </si>
+  <si>
+    <t>Клийн-9/Алое Бери нектар-Шоколад</t>
+  </si>
+  <si>
+    <t>Клийн-9/Алое Праскова-Ванилия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клийн-9/Алое Праскова-Шоколад </t>
+  </si>
+  <si>
+    <t>НАПРЕДНАЛИ
+За активно спортуващите, които търсят по-добра програма за постигане на целите си, са първа и втора част на F15 за напреднали. Подчертайте релефа на мускулите си с целеви упражнения и по-сериозни кардио тренировки. С ценни съвети по теми като хранене според типа тяло и правилно разпределяне на порциите.
+Всеки от пакетите F15 съдържа:
+Гел от алое вера
+(2 опаковки х 1 литър)
+Форевър лайт ултра шейк
+(1 плик, 15 порции)
+Форевър гарциния плюс
+(90 меки капсули)
+Форевър терм (30 таблетки)
+Форевър фибри (15 пакетчета)</t>
+  </si>
+  <si>
+    <t>НАЧИНАЕЩИ
+Ако сте новаци във фитнеса и храненето, можете да започнете с първа и втора част на F15 за начинаещи. Овладейте основите на фитнеса с упражнения, използващи тежестта на тялото, базови движения и ключови кардио тренировки. Поставете основа с лесни указания за хранене и добавки, здравословни рецепти, продукти за контрол на теглото и важни съвети за начина ви на живот. Като например защо са полезни протеините и как да си приготвите по-добра закуска. Всеки от пакетите F15 съдържа:
+Гел от алое вера
+(2 опаковки х 1 литър)
+Форевър лайт ултра шейк
+(1 плик, 15 порции)
+Форевър гарциния плюс
+(90 меки капсули)
+Форевър терм (30 таблетки)
+Форевър фибри (15 пакетчета)</t>
+  </si>
+  <si>
+    <t>СРЕДНО НАПРЕДНАЛИ
+Вече водите умерено активен живот и търсите начин да ускорите темпото? Изберете първа и втора част на F15 за средно напреднали. Режимът включва някои от любимите ви добавки на Форевър за контрол на теглото, нови здравословни рецепти, специално създадени упражнения, интервални тренировки и Ф.И.Т. йога. Програма F15 за средно напреднали ще ви помогне да преобразите тялото си и да изградите чиста мускулна маса. Ще разберете как ще ви помогнат силовите и високоинтензивните кардио тренировки. Ще научите как да постигнете трайна промяна със съвети за устояване на ненаситния апетит и за важната роля на съня за отслабването. Всеки от пакетите F15 съдържа:
+Гел от алое вера
+(2 опаковки х 1 литър)
+Форевър лайт ултра шейк
+(1 плик, 15 порции)
+Форевър гарциния плюс
+(90 меки капсули)
+Форевър терм (30 таблетки)
+Форевър фибри (15 пакетчета)</t>
+  </si>
+  <si>
+    <t>Всичко започва с нашата основополагаща програма C9, чиято цел е да ви освободи от натрупаните токсини и да ви помогне да се чувствате по-леки и по-жизнени. С 9-дневната програма ще поемете към своята по-здрава и по-елегантна същност. С лесен за спазване план, здравословни примерни ястия и рецепти за шейкове, с които да поставите основите за преобразяването си.  Пакетът C9 съдържа:
+Гел от алое вера (2 опаковки х 1 литър)
+Форевър шейк (1 плик, 15 порции)
+Форевър гарциния плюс (54 меки капсули)
+Форевър терм (18 таблетки)
+Форевър фибри (9 пакетчета)</t>
+  </si>
+  <si>
+    <t>ЖИЗНЕНОВАЖНИТЕ ПЕТ ПРОДУКТА НА ФОРЕВЪР
+Програма Vital5 е нашето решение за пълноценно хранене в един удобен пакет. В кутията ще откриете ГЕЛ ОТ АЛОЕ ВЕРА, ФОРЕВЪР ДЕЙЛИ, ФОРЕВЪР АКТИВ ПРО-Б, АРКТИЧЕСКО МОРЕ и АРГИ+. Заедно тези пет продукта създават основа от мощни хранителни вещества, които поддържат хранителната магистрала в тялото на всеки един от нас.
+Тази скоростна магистрала осигурява транспортирането на нутриенти из цялото тяло до всички органи, тъкани и клетки. Храните и добавките, които поглъщаме, ни зареждат с полезни вещества и магистралата се грижи те да стигнат до всяка наша клетка. Същевременно тя изхвърля отпадните продукти, естествено произвеждани от организма, за да функционира той оптимално. Или накратко – нутриентите се доставят, където са необходими, а ненужното се отнася за изхвърляне. Добре функционираща хранителна магистрала означава оптимално здраве и жизненост с умствена, физическа и емоционална енергия.</t>
+  </si>
+  <si>
+    <t>4 бр.Aloe Vera Gel (1 л) или
+4 бр.Berry Nectar (1 л) 4 бр. Гел от алое вера или
+4 бр. Нектар от алое и боровинки
+Forever Daily Форевър дейли
+Forever Active Pro-B Актив ПРО-Б
+Forever Arctic Sea Арктическо море
+ARGI+ АРГИ+</t>
+  </si>
+  <si>
+    <t>5 бр.Aloe Vera Gel (1 л) или
+4 бр.Berry Nectar (1 л) 4 бр. Гел от алое вера или
+4 бр. Нектар от алое и боровинки
+Forever Daily Форевър дейли
+Forever Active Pro-B Актив ПРО-Б
+Forever Arctic Sea Арктическо море
+ARGI+ АРГИ+</t>
+  </si>
+  <si>
+    <t>https://flp.bg/bg/dl/VItal5_BG.pdf</t>
+  </si>
+  <si>
+    <t>https://flp.bg/bg/dl/C9_Booklet_BG.pdf</t>
+  </si>
+  <si>
+    <t>https://flp.bg/bg/dl/F15_BeginnerBG.pdf</t>
+  </si>
+  <si>
+    <t>https://flp.bg/bg/dl/F15_IntermediateBG.pdf</t>
+  </si>
+  <si>
+    <t>https://flp.bg/bg/dl/F15_AdvancedBG.pdf</t>
+  </si>
+  <si>
+    <t>Гел от алое вера
+(2 опаковки х 1 литър)
+Форевър лайт ултра шейк
+(1 плик, 15 порции)
+Форевър гарциния плюс
+(90 меки капсули)
+Форевър терм (30 таблетки)
+Форевър фибри (15 пакетчета)</t>
+  </si>
+  <si>
+    <t>Пакетът C9 съдържа:
+Гел от алое вера (2 опаковки х 1 литър)
+Форевър лайт ултра шейк (1 плик, 15 порции)
+Форевър гарциния плюс (54 меки капсули)
+Форевър терм (18 таблетки)
+Форевър фибри (9 пакетчета)</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/KfnkAqqk</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/pSUSDRu6</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/iUAcpdl3</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/85Mxzokm</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/uJ2W3qgd</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/8n6lRvsU</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/UMWgAiQK</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/2nUDNCS1</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/BzXELmWS</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/Ii4Jppg7</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/LKZEM9bu</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/jV6PoGDS</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/N000Bh2N</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/C637wOsi</t>
+  </si>
+  <si>
+    <t>Forever AloeTurm</t>
+  </si>
+  <si>
+    <t>Форевър АЛОЕТУРМ</t>
+  </si>
+  <si>
+    <t>Форевър АЛОЕТУРМ е хидрогелен пастил с подобрено усвояване за подкрепа на имунитета. Уникалната ни формула съдържа индийска куркума и е подсилена с цинк, който допринася за нормалната функция на имунната система.
+Куркумата познаваме като подправка с яркожълт цвят, но тя всъщност е и древна аюрведична билка, широко използвана от хиляди години като ключов елемент на естествения начин на живот. Едно от най-големите предизвикателства по отношение на куркумата е трудното ? усвояване от организма. Форевър АЛОЕТУРМ решава проблема с помощта на новаторска хидрогелна технология, благодарение на която пастилите бавно се разтапят в устата и тялото усвоява куркумата директно.
+В допълнение към положителното си въздействие върху имунитета, минералът цинк допринася още за защита на клетките от оксидативен стрес, за нормална когнитивна функция, както и за поддържането на нормално състояние на костите, косата, ноктите, кожата и зрението.
+АЛОЕТУРМ не само подкрепя имунното здраве, но и успокоява устната кухина с освежаващия си ментов вкус. Удобната компактна опаковка под формата на блистер с 10 пастила може да е с вас навсякъде. Просто поставете един от меките пастили под езика си и го оставете да се разтопи бавно. Лесен и приятен начин да подпомогнете защитните сили на организма си.</t>
+  </si>
+  <si>
+    <t>Влагозадържащ агент (глицерин), желатин, екстракт от корен на куркума (Curcuma longa), вода, емулгатори (соев лецитин, полисорбат 80), аромати, цинк (цинков сулфат), подсладители (сукралоза, стевиол гликозиди от стевия), сок от вътрешността на листата на алое вера (Aloe barbadensis) на прах. Съвет за алергии: алергените са отбелязани в получер шрифт.</t>
+  </si>
+  <si>
+    <t>Оставете пастила да се разтопи бавно в устата, преди да преглътнете. Приемайте до три пастила дневно като хранителна добавка.</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/wP6hdOv4</t>
+  </si>
+  <si>
+    <t>Aloe Drinks TriPack</t>
+  </si>
+  <si>
+    <t>ТриПак - алое напитки</t>
+  </si>
+  <si>
+    <t>Кой е любимият ви алое гел? Няма да разберете, докато не опитате няколко различни! Тройният ни пакет включва три от незаменимите алое напитки, за да се насладите на хранителните качества на всяка от тях. В пакета получавате ГЕЛА ОТ АЛОЕ ВЕРА заедно с АЛОЕ И ПРАСКОВИ и АЛОЕ БЕРИ НЕКТАР с неговия свеж и богат на антиоксиданти вкус, подкрепящ нормалното храносмилане. И трите са в опаковки от 100% рециклируем материал.</t>
+  </si>
+  <si>
+    <t>Разклатете добре преди употреба! Два приема по 60 мл или три по 40 мл. Сипвайте всяка доза в чаша и разреждайте в 240 ml вода или сок. Не пийте директно от опаковката, за да не попадат в нея бактерии, които могат да ускорят развалянето.</t>
+  </si>
+  <si>
+    <t>На сухо и хладно място. След отваряне съхранявайте в хладилник (макс. 7°С) и консумирайте до 30 дни.</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/m2owhXTK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;лв.&quot;;[Red]\-#,##0.00\ &quot;лв.&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,23 +2039,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1857,9 +2093,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1882,29 +2118,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -2186,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2197,13 +2467,13 @@
     <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="1"/>
     <col min="3" max="3" width="15.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="59.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="33" style="1" customWidth="1"/>
     <col min="12" max="12" width="37.33203125" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" style="1" customWidth="1"/>
@@ -2219,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -2237,22 +2507,22 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="L1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2278,7 +2548,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1000b.jpg</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H2" s="5">
         <v>59.54</v>
@@ -2290,16 +2560,16 @@
         <v>149</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L2" t="s">
         <v>395</v>
       </c>
-      <c r="L2" t="s">
-        <v>401</v>
-      </c>
-      <c r="M2" s="16">
+      <c r="M2" s="9">
         <f>H2 * 0.95</f>
         <v>56.562999999999995</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="9">
         <f>H2 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
@@ -2327,7 +2597,7 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1001b.jpg</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H3" s="5">
         <v>59.54</v>
@@ -2339,114 +2609,114 @@
         <v>151</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L3" t="s">
-        <v>402</v>
-      </c>
-      <c r="M3" s="16">
-        <f t="shared" ref="M3:M66" si="0">H3 * 0.95</f>
+        <v>396</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M11" si="0">H3 * 0.95</f>
         <v>56.562999999999995</v>
       </c>
-      <c r="N3" s="16">
-        <f t="shared" ref="N3:N66" si="1">H3 * 0.7</f>
+      <c r="N3" s="9">
+        <f t="shared" ref="N3:N68" si="1">H3 * 0.7</f>
         <v>41.677999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="9">
+    <row r="4" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="13">
         <v>1075</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="14" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C85 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075.jpg</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="12" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C85 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075a.jpg</v>
       </c>
-      <c r="F4" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C85 &amp;"b" &amp;".jpg"</f>
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F4:F10" si="2" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C4:C85 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1075b.jpg</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G4" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="16">
         <v>59.54</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="M4" s="16">
+      <c r="K4" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="M4" s="9">
         <f t="shared" si="0"/>
         <v>56.562999999999995</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="17">
         <f t="shared" si="1"/>
         <v>41.677999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="9">
+    <row r="5" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="13">
         <v>1082</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="14" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C86 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082.jpg</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="12" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C86 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1082a.jpg</v>
       </c>
-      <c r="F5" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C5:C86 &amp;"b" &amp;".jpg"</f>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1082b.jpg</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H5" s="16">
         <v>55.51</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="M5" s="16">
+      <c r="I5" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>52.734499999999997</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="17">
         <f t="shared" si="1"/>
         <v>38.856999999999999</v>
       </c>
@@ -2470,11 +2740,11 @@
         <v>https://iglika.me/products_img/Product_details_JPG/1002a.jpg</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C6:C85 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" si="2"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1002b.jpg</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H6" s="5">
         <v>59.54</v>
@@ -2486,16 +2756,16 @@
         <v>149</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L6" t="s">
-        <v>405</v>
-      </c>
-      <c r="M6" s="16">
+        <v>399</v>
+      </c>
+      <c r="M6" s="9">
         <f t="shared" si="0"/>
         <v>56.562999999999995</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="9">
         <f t="shared" si="1"/>
         <v>41.677999999999997</v>
       </c>
@@ -2514,8 +2784,12 @@
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C7:C86 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
       </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1003b.jpg</v>
+      </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H7" s="5">
         <v>178.61</v>
@@ -2527,58 +2801,62 @@
         <v>149</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L7" t="s">
-        <v>406</v>
-      </c>
-      <c r="M7" s="16">
+        <v>400</v>
+      </c>
+      <c r="M7" s="9">
         <f t="shared" si="0"/>
         <v>169.67950000000002</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="9">
         <f t="shared" si="1"/>
         <v>125.027</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="9">
+    <row r="8" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="13">
         <v>1004</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8" t="str">
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="str">
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C8:C87 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1004b.jpg</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="H8" s="16">
         <v>178.61</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="M8" s="16">
+      <c r="K8" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="M8" s="9">
         <f t="shared" si="0"/>
         <v>169.67950000000002</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="17">
         <f t="shared" si="1"/>
         <v>125.027</v>
       </c>
@@ -2597,8 +2875,12 @@
         <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C9:C88 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
       </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1005b.jpg</v>
+      </c>
       <c r="G9" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H9" s="5">
         <v>178.61</v>
@@ -2610,3298 +2892,3855 @@
         <v>149</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L9" t="s">
-        <v>408</v>
-      </c>
-      <c r="M9" s="16">
+        <v>402</v>
+      </c>
+      <c r="M9" s="9">
         <f t="shared" si="0"/>
         <v>169.67950000000002</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="9">
         <f t="shared" si="1"/>
         <v>125.027</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1084</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="F10" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1084b.jpg</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="H10" s="30">
+        <v>178.61</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="M10" s="9">
+        <f>H10 * 0.95</f>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="N10" s="9">
+        <f>H10 * 0.7</f>
+        <v>125.027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>1006</v>
       </c>
-      <c r="D10" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C89 &amp;".jpg"</f>
+      <c r="D11" s="4" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C89 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006.jpg</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C89 &amp;"a" &amp;".jpg"</f>
+      <c r="E11" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C89 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006a.jpg</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C10:C89 &amp;"b" &amp;".jpg"</f>
+      <c r="F11" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C89 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1006b.jpg</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="5">
         <v>238.12</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="L10" t="s">
-        <v>409</v>
-      </c>
-      <c r="M10" s="16">
+      <c r="K11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L11" t="s">
+        <v>403</v>
+      </c>
+      <c r="M11" s="9">
         <f t="shared" si="0"/>
         <v>226.214</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N11" s="9">
         <f t="shared" si="1"/>
         <v>166.684</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>1007</v>
       </c>
-      <c r="D11" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C90 &amp;".jpg"</f>
+      <c r="D12" s="4" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C90 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007.jpg</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C90 &amp;"a" &amp;".jpg"</f>
+      <c r="E12" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C90 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007a.jpg</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C11:C90 &amp;"b" &amp;".jpg"</f>
+      <c r="F12" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C90 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1007b.jpg</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="5">
         <v>238.12</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L11" t="s">
-        <v>410</v>
-      </c>
-      <c r="M11" s="16">
-        <f t="shared" si="0"/>
+      <c r="K12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L12" t="s">
+        <v>404</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" ref="M3:M68" si="3">H12 * 0.95</f>
         <v>226.214</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N12" s="9">
         <f t="shared" si="1"/>
         <v>166.684</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>1008</v>
       </c>
-      <c r="D12" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C91 &amp;".jpg"</f>
+      <c r="D13" s="4" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C91 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008.jpg</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C12:C91 &amp;"b" &amp;".jpg"</f>
+      <c r="E13" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C91 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1008b.jpg</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="5">
         <v>238.12</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L12" t="s">
-        <v>411</v>
-      </c>
-      <c r="M12" s="16">
-        <f t="shared" si="0"/>
+      <c r="K13" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L13" t="s">
+        <v>405</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="3"/>
         <v>226.214</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N13" s="9">
         <f t="shared" si="1"/>
         <v>166.684</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>1009</v>
       </c>
-      <c r="D13" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C92 &amp;".jpg"</f>
+      <c r="D14" s="4" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C92 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009.jpg</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C13:C92 &amp;"b" &amp;".jpg"</f>
+      <c r="E14" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C92 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1009b.jpg</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="5">
         <v>81.36</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L13" t="s">
-        <v>412</v>
-      </c>
-      <c r="M13" s="16">
-        <f t="shared" si="0"/>
+      <c r="L14" t="s">
+        <v>406</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="3"/>
         <v>77.292000000000002</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N14" s="9">
         <f t="shared" si="1"/>
         <v>56.951999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" s="9">
+    <row r="15" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="13">
         <v>1076</v>
       </c>
-      <c r="D14" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C93 &amp;".jpg"</f>
+      <c r="D15" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C15:C93 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076.jpg</v>
       </c>
-      <c r="E14" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C93 &amp;"a" &amp;".jpg"</f>
+      <c r="E15" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C15:C93 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076a.jpg</v>
       </c>
-      <c r="F14" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C14:C93 &amp;"b" &amp;".jpg"</f>
+      <c r="F15" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C15:C93 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1076b.jpg</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="G15" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H15" s="16">
         <v>8.58</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="M14" s="16">
-        <f t="shared" si="0"/>
+      <c r="I15" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" si="3"/>
         <v>8.1509999999999998</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N15" s="17">
         <f t="shared" si="1"/>
         <v>6.0059999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>1010</v>
       </c>
-      <c r="D15" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C15:C93 &amp;".jpg"</f>
+      <c r="D16" s="4" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C16:C93 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010.jpg</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C15:C93 &amp;"a" &amp;".jpg"</f>
+      <c r="E16" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C16:C93 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010a.jpg</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C15:C93 &amp;"b" &amp;".jpg"</f>
+      <c r="F16" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C16:C93 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1010b.jpg</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" s="5">
         <v>40.06</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L15" t="s">
-        <v>414</v>
-      </c>
-      <c r="M15" s="16">
-        <f t="shared" si="0"/>
+      <c r="L16" t="s">
+        <v>408</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="3"/>
         <v>38.057000000000002</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N16" s="9">
         <f t="shared" si="1"/>
         <v>28.041999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>1011</v>
       </c>
-      <c r="D16" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C16:C94 &amp;".jpg"</f>
+      <c r="D17" s="4" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C94 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011.jpg</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C16:C94 &amp;"a" &amp;".jpg"</f>
+      <c r="E17" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C94 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011a.jpg</v>
       </c>
-      <c r="F16" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C16:C94 &amp;"b" &amp;".jpg"</f>
+      <c r="F17" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C94 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1011b.jpg</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="6">
         <v>8.58</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="M16" s="16">
-        <f t="shared" si="0"/>
+      <c r="L17" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="3"/>
         <v>8.1509999999999998</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N17" s="9">
         <f t="shared" si="1"/>
         <v>6.0059999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>1012</v>
       </c>
-      <c r="D17" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C95 &amp;".jpg"</f>
+      <c r="D18" s="4" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C95 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012.jpg</v>
       </c>
-      <c r="E17" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C17:C95 &amp;"b" &amp;".jpg"</f>
+      <c r="E18" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C95 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1012b.jpg</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="5">
         <v>27.48</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L17" t="s">
-        <v>416</v>
-      </c>
-      <c r="M17" s="16">
-        <f t="shared" si="0"/>
+      <c r="L18" t="s">
+        <v>410</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="3"/>
         <v>26.105999999999998</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N18" s="9">
         <f t="shared" si="1"/>
         <v>19.236000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C18" s="9">
+    <row r="19" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="13">
         <v>1078</v>
       </c>
-      <c r="D18" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C96 &amp;".jpg"</f>
+      <c r="D19" s="14" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C96 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078.jpg</v>
       </c>
-      <c r="E18" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C96 &amp;"a" &amp;".jpg"</f>
+      <c r="E19" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C96 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078a.jpg</v>
       </c>
-      <c r="F18" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C18:C96 &amp;"b" &amp;".jpg"</f>
+      <c r="F19" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C96 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1078b.jpg</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="G19" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H19" s="16">
         <v>32.61</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="M18" s="16">
-        <f t="shared" si="0"/>
+      <c r="I19" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="3"/>
         <v>30.979499999999998</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N19" s="17">
         <f t="shared" si="1"/>
         <v>22.826999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>1013</v>
       </c>
-      <c r="D19" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C96 &amp;".jpg"</f>
+      <c r="D20" s="4" t="str">
+        <f t="shared" ref="D20:D26" si="4" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C96 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013.jpg</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C19:C96 &amp;"b" &amp;".jpg"</f>
+      <c r="E20" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C96 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1013b.jpg</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="5">
         <v>40.06</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L19" t="s">
-        <v>418</v>
-      </c>
-      <c r="M19" s="16">
-        <f t="shared" si="0"/>
+      <c r="L20" t="s">
+        <v>412</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="3"/>
         <v>38.057000000000002</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N20" s="9">
         <f t="shared" si="1"/>
         <v>28.041999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>1014</v>
       </c>
-      <c r="D20" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C97 &amp;".jpg"</f>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1014.jpg</v>
       </c>
-      <c r="E20" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C20:C97 &amp;"b" &amp;".jpg"</f>
+      <c r="E21" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C97 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1014b.jpg</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" s="5">
         <v>72.680000000000007</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L20" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="M20" s="16">
-        <f t="shared" si="0"/>
+      <c r="L21" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="3"/>
         <v>69.046000000000006</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N21" s="9">
         <f t="shared" si="1"/>
         <v>50.876000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>1015</v>
       </c>
-      <c r="D21" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C98 &amp;".jpg"</f>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1015.jpg</v>
       </c>
-      <c r="E21" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C98 &amp;"a" &amp;".jpg"</f>
+      <c r="E22" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C98 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015a.jpg</v>
       </c>
-      <c r="F21" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C21:C98 &amp;"b" &amp;".jpg"</f>
+      <c r="F22" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C98 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1015b.jpg</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="5">
         <v>156.84</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L21" t="s">
-        <v>420</v>
-      </c>
-      <c r="M21" s="16">
-        <f t="shared" si="0"/>
+      <c r="L22" t="s">
+        <v>414</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="3"/>
         <v>148.99799999999999</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N22" s="9">
         <f t="shared" si="1"/>
         <v>109.788</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>1016</v>
       </c>
-      <c r="D22" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C99 &amp;".jpg"</f>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1016.jpg</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C22:C99 &amp;"b" &amp;".jpg"</f>
+      <c r="E23" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C99 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1016b.jpg</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="G23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" s="5">
         <v>35.5</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L22" t="s">
-        <v>421</v>
-      </c>
-      <c r="M22" s="16">
-        <f t="shared" si="0"/>
+      <c r="L23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="3"/>
         <v>33.725000000000001</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N23" s="9">
         <f t="shared" si="1"/>
         <v>24.849999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>1017</v>
       </c>
-      <c r="D23" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C100 &amp;".jpg"</f>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1017.jpg</v>
       </c>
-      <c r="E23" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C23:C100 &amp;"b" &amp;".jpg"</f>
+      <c r="E24" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C100 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1017b.jpg</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="G24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="5">
         <v>34.909999999999997</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L23" t="s">
-        <v>422</v>
-      </c>
-      <c r="M23" s="16">
-        <f t="shared" si="0"/>
+      <c r="L24" t="s">
+        <v>416</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="3"/>
         <v>33.164499999999997</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N24" s="9">
         <f t="shared" si="1"/>
         <v>24.436999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>1018</v>
       </c>
-      <c r="D24" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C101 &amp;".jpg"</f>
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1018.jpg</v>
       </c>
-      <c r="E24" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C24:C101 &amp;"b" &amp;".jpg"</f>
+      <c r="E25" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C101 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1018b.jpg</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="G25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="5">
         <v>72.680000000000007</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L24" t="s">
-        <v>423</v>
-      </c>
-      <c r="M24" s="16">
-        <f t="shared" si="0"/>
+      <c r="L25" t="s">
+        <v>417</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="3"/>
         <v>69.046000000000006</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N25" s="9">
         <f t="shared" si="1"/>
         <v>50.876000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>1019</v>
       </c>
-      <c r="D25" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C102 &amp;".jpg"</f>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1019.jpg</v>
       </c>
-      <c r="E25" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C25:C102 &amp;"b" &amp;".jpg"</f>
+      <c r="E26" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C102 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1019b.jpg</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="5">
         <v>54.94</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L25" t="s">
-        <v>424</v>
-      </c>
-      <c r="M25" s="16">
-        <f t="shared" si="0"/>
+      <c r="L26" t="s">
+        <v>418</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="3"/>
         <v>52.192999999999998</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N26" s="9">
         <f t="shared" si="1"/>
         <v>38.457999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>1020</v>
       </c>
-      <c r="D26" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C26:C103 &amp;"b" &amp;".jpg"</f>
+      <c r="D27" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C103 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1020b.jpg</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G27" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27" s="5">
         <v>41.79</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L26" t="s">
-        <v>425</v>
-      </c>
-      <c r="M26" s="16">
-        <f t="shared" si="0"/>
+      <c r="L27" t="s">
+        <v>419</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="3"/>
         <v>39.700499999999998</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N27" s="9">
         <f t="shared" si="1"/>
         <v>29.252999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>1021</v>
       </c>
-      <c r="D27" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C104 &amp;".jpg"</f>
+      <c r="D28" s="4" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C104 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021.jpg</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C27:C104 &amp;"b" &amp;".jpg"</f>
+      <c r="E28" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C104 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1021b.jpg</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G28" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H28" s="5">
         <v>48.08</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L27" t="s">
-        <v>426</v>
-      </c>
-      <c r="M27" s="16">
-        <f t="shared" si="0"/>
+      <c r="L28" t="s">
+        <v>420</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="3"/>
         <v>45.675999999999995</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N28" s="9">
         <f t="shared" si="1"/>
         <v>33.655999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="22">
+        <v>1085</v>
+      </c>
+      <c r="D29" s="23" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C105 &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1085.jpg</v>
+      </c>
+      <c r="E29" s="21" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C105 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1085b.jpg</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="H29" s="30">
+        <v>14.9</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="M29" s="27">
+        <f t="shared" si="3"/>
+        <v>14.154999999999999</v>
+      </c>
+      <c r="N29" s="27">
+        <f t="shared" si="1"/>
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>1022</v>
       </c>
-      <c r="D28" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C105 &amp;".jpg"</f>
+      <c r="D30" s="4" t="str">
+        <f t="shared" ref="D30:D42" si="5" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C105 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022.jpg</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C105 &amp;"a" &amp;".jpg"</f>
+      <c r="E30" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C105 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022a.jpg</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C28:C105 &amp;"b" &amp;".jpg"</f>
+      <c r="F30" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C105 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1022b.jpg</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G30" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H30" s="5">
         <v>84.69</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L28" t="s">
-        <v>427</v>
-      </c>
-      <c r="M28" s="16">
-        <f t="shared" si="0"/>
+      <c r="L30" t="s">
+        <v>421</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="3"/>
         <v>80.455500000000001</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N30" s="9">
         <f t="shared" si="1"/>
         <v>59.282999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>1023</v>
       </c>
-      <c r="D29" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C106 &amp;".jpg"</f>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1023.jpg</v>
       </c>
-      <c r="E29" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C29:C106 &amp;"b" &amp;".jpg"</f>
+      <c r="E31" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C106 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1023b.jpg</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="G31" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H31" s="5">
         <v>80.12</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L29" t="s">
-        <v>428</v>
-      </c>
-      <c r="M29" s="16">
-        <f t="shared" si="0"/>
+      <c r="L31" t="s">
+        <v>422</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="3"/>
         <v>76.114000000000004</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N31" s="9">
         <f t="shared" si="1"/>
         <v>56.083999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C32" s="3">
         <v>1024</v>
       </c>
-      <c r="D30" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C107 &amp;".jpg"</f>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1024.jpg</v>
       </c>
-      <c r="E30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C107 &amp;"a" &amp;".jpg"</f>
+      <c r="E32" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C107 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024a.jpg</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C30:C107 &amp;"b" &amp;".jpg"</f>
+      <c r="F32" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C107 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1024b.jpg</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G32" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H32" s="5">
         <v>187.14</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L30" t="s">
-        <v>429</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="0"/>
+      <c r="L32" t="s">
+        <v>423</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="3"/>
         <v>177.78299999999999</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N32" s="9">
         <f t="shared" si="1"/>
         <v>130.99799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C33" s="3">
         <v>1025</v>
       </c>
-      <c r="D31" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C108 &amp;".jpg"</f>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1025.jpg</v>
       </c>
-      <c r="E31" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C108 &amp;"a" &amp;".jpg"</f>
+      <c r="E33" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C108 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025a.jpg</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C31:C108 &amp;"b" &amp;".jpg"</f>
+      <c r="F33" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C108 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1025b.jpg</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="G33" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H33" s="5">
         <v>60.68</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L31" t="s">
-        <v>430</v>
-      </c>
-      <c r="M31" s="16">
-        <f t="shared" si="0"/>
+      <c r="L33" t="s">
+        <v>424</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="3"/>
         <v>57.645999999999994</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N33" s="9">
         <f t="shared" si="1"/>
         <v>42.475999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C34" s="3">
         <v>1026</v>
       </c>
-      <c r="D32" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C109 &amp;".jpg"</f>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1026.jpg</v>
       </c>
-      <c r="E32" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C32:C109 &amp;"b" &amp;".jpg"</f>
+      <c r="E34" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C34:C109 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1026b.jpg</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G34" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H34" s="5">
         <v>75.58</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L32" t="s">
-        <v>431</v>
-      </c>
-      <c r="M32" s="16">
-        <f t="shared" si="0"/>
+      <c r="L34" t="s">
+        <v>425</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="3"/>
         <v>71.801000000000002</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N34" s="9">
         <f t="shared" si="1"/>
         <v>52.905999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C35" s="3">
         <v>1027</v>
       </c>
-      <c r="D33" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C110 &amp;".jpg"</f>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1027.jpg</v>
       </c>
-      <c r="E33" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C110 &amp;"a" &amp;".jpg"</f>
+      <c r="E35" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C110 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027a.jpg</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C33:C110 &amp;"b" &amp;".jpg"</f>
+      <c r="F35" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C110 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1027b.jpg</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="G35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H35" s="5">
         <v>88.12</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L33" t="s">
-        <v>432</v>
-      </c>
-      <c r="M33" s="16">
-        <f t="shared" si="0"/>
+      <c r="L35" t="s">
+        <v>426</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="3"/>
         <v>83.713999999999999</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N35" s="9">
         <f t="shared" si="1"/>
         <v>61.683999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C36" s="3">
         <v>1028</v>
       </c>
-      <c r="D34" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C34:C111 &amp;".jpg"</f>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1028.jpg</v>
       </c>
-      <c r="E34" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C34:C111 &amp;"b" &amp;".jpg"</f>
+      <c r="E36" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C36:C111 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1028b.jpg</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="G36" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H36" s="5">
         <v>68.680000000000007</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L34" t="s">
-        <v>433</v>
-      </c>
-      <c r="M34" s="16">
-        <f t="shared" si="0"/>
+      <c r="L36" t="s">
+        <v>427</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="3"/>
         <v>65.246000000000009</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N36" s="9">
         <f t="shared" si="1"/>
         <v>48.076000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C37" s="3">
         <v>1029</v>
       </c>
-      <c r="D35" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C112 &amp;".jpg"</f>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1029.jpg</v>
       </c>
-      <c r="E35" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C35:C112 &amp;"b" &amp;".jpg"</f>
+      <c r="E37" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C112 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1029b.jpg</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G37" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H37" s="5">
         <v>72.680000000000007</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L35" t="s">
-        <v>434</v>
-      </c>
-      <c r="M35" s="16">
-        <f t="shared" si="0"/>
+      <c r="L37" t="s">
+        <v>428</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="3"/>
         <v>69.046000000000006</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N37" s="9">
         <f t="shared" si="1"/>
         <v>50.876000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C38" s="3">
         <v>1030</v>
       </c>
-      <c r="D36" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C36:C113 &amp;".jpg"</f>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1030.jpg</v>
       </c>
-      <c r="E36" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C36:C113 &amp;"a" &amp;".jpg"</f>
+      <c r="E38" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C113 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030a.jpg</v>
       </c>
-      <c r="F36" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C36:C113 &amp;"b" &amp;".jpg"</f>
+      <c r="F38" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C113 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1030b.jpg</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H36" s="6">
+      <c r="G38" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H38" s="6">
         <v>118.46</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L36" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="M36" s="16">
-        <f t="shared" si="0"/>
+      <c r="L38" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="3"/>
         <v>112.53699999999999</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N38" s="9">
         <f t="shared" si="1"/>
         <v>82.921999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C39" s="3">
         <v>1031</v>
       </c>
-      <c r="D37" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C114 &amp;".jpg"</f>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1031.jpg</v>
       </c>
-      <c r="E37" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C114 &amp;"a" &amp;".jpg"</f>
+      <c r="E39" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C114 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031a.jpg</v>
       </c>
-      <c r="F37" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C37:C114 &amp;"b" &amp;".jpg"</f>
+      <c r="F39" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C114 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1031b.jpg</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="G39" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H39" s="5">
         <v>36.61</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L37" t="s">
-        <v>436</v>
-      </c>
-      <c r="M37" s="16">
-        <f t="shared" si="0"/>
+      <c r="L39" t="s">
+        <v>430</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="3"/>
         <v>34.779499999999999</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N39" s="9">
         <f t="shared" si="1"/>
         <v>25.626999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C40" s="3">
         <v>1032</v>
       </c>
-      <c r="D38" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C115 &amp;".jpg"</f>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1032.jpg</v>
       </c>
-      <c r="E38" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C115 &amp;"a" &amp;".jpg"</f>
+      <c r="E40" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C115 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032a.jpg</v>
       </c>
-      <c r="F38" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C38:C115 &amp;"b" &amp;".jpg"</f>
+      <c r="F40" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C115 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1032b.jpg</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="G40" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" s="5">
         <v>41.79</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L38" t="s">
-        <v>437</v>
-      </c>
-      <c r="M38" s="16">
-        <f t="shared" si="0"/>
+      <c r="L40" t="s">
+        <v>431</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="3"/>
         <v>39.700499999999998</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N40" s="9">
         <f t="shared" si="1"/>
         <v>29.252999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C41" s="3">
         <v>1033</v>
       </c>
-      <c r="D39" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C116 &amp;".jpg"</f>
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1033.jpg</v>
       </c>
-      <c r="E39" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C116 &amp;"a" &amp;".jpg"</f>
+      <c r="E41" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C116 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033a.jpg</v>
       </c>
-      <c r="F39" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C39:C116 &amp;"b" &amp;".jpg"</f>
+      <c r="F41" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C116 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1033b.jpg</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H39" s="5">
+      <c r="G41" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" s="5">
         <v>49.78</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L39" t="s">
-        <v>438</v>
-      </c>
-      <c r="M39" s="16">
-        <f t="shared" si="0"/>
+      <c r="L41" t="s">
+        <v>432</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="3"/>
         <v>47.290999999999997</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N41" s="9">
         <f t="shared" si="1"/>
         <v>34.845999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C40" s="9">
+    <row r="42" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" s="13">
         <v>1077</v>
       </c>
-      <c r="D40" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C117 &amp;".jpg"</f>
+      <c r="D42" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1077.jpg</v>
       </c>
-      <c r="E40" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C117 &amp;"a" &amp;".jpg"</f>
+      <c r="E42" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C117 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077a.jpg</v>
       </c>
-      <c r="F40" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C40:C117 &amp;"b" &amp;".jpg"</f>
+      <c r="F42" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C117 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1077b.jpg</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="H40" s="12">
+      <c r="G42" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="H42" s="16">
         <v>72.680000000000007</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="M40" s="16">
-        <f t="shared" si="0"/>
+      <c r="I42" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="M42" s="17">
+        <f t="shared" si="3"/>
         <v>69.046000000000006</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N42" s="17">
         <f t="shared" si="1"/>
         <v>50.876000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C43" s="3">
         <v>1034</v>
       </c>
-      <c r="D41" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C117 &amp;".jpg"</f>
+      <c r="D43" s="4" t="str">
+        <f t="shared" ref="D43:D67" si="6" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C117 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1034.jpg</v>
       </c>
-      <c r="E41" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C41:C117 &amp;"b" &amp;".jpg"</f>
+      <c r="E43" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C117 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1034b.jpg</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H41" s="5">
+      <c r="G43" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H43" s="5">
         <v>8</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L41" t="s">
-        <v>440</v>
-      </c>
-      <c r="M41" s="16">
-        <f t="shared" si="0"/>
+      <c r="L43" t="s">
+        <v>434</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
-      <c r="N41" s="16">
+      <c r="N43" s="9">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C44" s="3">
         <v>1035</v>
       </c>
-      <c r="D42" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C118 &amp;".jpg"</f>
+      <c r="D44" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1035.jpg</v>
       </c>
-      <c r="E42" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C42:C118 &amp;"b" &amp;".jpg"</f>
+      <c r="E44" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C118 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1035b.jpg</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H42" s="5">
+      <c r="G44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H44" s="5">
         <v>36.08</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L42" t="s">
-        <v>441</v>
-      </c>
-      <c r="M42" s="16">
-        <f t="shared" si="0"/>
+      <c r="L44" t="s">
+        <v>435</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="3"/>
         <v>34.275999999999996</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N44" s="9">
         <f t="shared" si="1"/>
         <v>25.255999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C45" s="3">
         <v>1036</v>
       </c>
-      <c r="D43" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C119 &amp;".jpg"</f>
+      <c r="D45" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1036.jpg</v>
       </c>
-      <c r="E43" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C119 &amp;"a" &amp;".jpg"</f>
+      <c r="E45" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C119 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036a.jpg</v>
       </c>
-      <c r="F43" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C43:C119 &amp;"b" &amp;".jpg"</f>
+      <c r="F45" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C119 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1036b.jpg</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H43" s="5">
+      <c r="G45" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H45" s="5">
         <v>400.64</v>
       </c>
-      <c r="L43" t="s">
-        <v>442</v>
-      </c>
-      <c r="M43" s="16">
-        <f t="shared" si="0"/>
+      <c r="L45" t="s">
+        <v>436</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" si="3"/>
         <v>380.60799999999995</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N45" s="9">
         <f t="shared" si="1"/>
         <v>280.44799999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C46" s="3">
         <v>1037</v>
       </c>
-      <c r="D44" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C120 &amp;".jpg"</f>
+      <c r="D46" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1037.jpg</v>
       </c>
-      <c r="E44" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C120 &amp;"a" &amp;".jpg"</f>
+      <c r="E46" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C120 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037a.jpg</v>
       </c>
-      <c r="F44" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C44:C120 &amp;"b" &amp;".jpg"</f>
+      <c r="F46" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C120 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1037b.jpg</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="G46" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H46" s="5">
         <v>80.12</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L44" t="s">
-        <v>443</v>
-      </c>
-      <c r="M44" s="16">
-        <f t="shared" si="0"/>
+      <c r="L46" t="s">
+        <v>437</v>
+      </c>
+      <c r="M46" s="9">
+        <f t="shared" si="3"/>
         <v>76.114000000000004</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N46" s="9">
         <f t="shared" si="1"/>
         <v>56.083999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C47" s="3">
         <v>1038</v>
       </c>
-      <c r="D45" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C121 &amp;".jpg"</f>
+      <c r="D47" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1038.jpg</v>
       </c>
-      <c r="E45" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C45:C121 &amp;"b" &amp;".jpg"</f>
+      <c r="E47" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C121 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1038b.jpg</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H45" s="5">
+      <c r="G47" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H47" s="5">
         <v>119.05</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L45" t="s">
-        <v>444</v>
-      </c>
-      <c r="M45" s="16">
-        <f t="shared" si="0"/>
+      <c r="L47" t="s">
+        <v>438</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="3"/>
         <v>113.0975</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N47" s="9">
         <f t="shared" si="1"/>
         <v>83.334999999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C48" s="3">
         <v>1039</v>
       </c>
-      <c r="D46" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C122 &amp;".jpg"</f>
+      <c r="D48" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1039.jpg</v>
       </c>
-      <c r="E46" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C122 &amp;"a" &amp;".jpg"</f>
+      <c r="E48" s="1" t="str">
+        <f t="shared" ref="E48:E63" si="7" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C122 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039a.jpg</v>
       </c>
-      <c r="F46" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C46:C122 &amp;"b" &amp;".jpg"</f>
+      <c r="F48" s="1" t="str">
+        <f t="shared" ref="F48:F63" si="8" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C122 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1039b.jpg</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H46" s="5">
+      <c r="G48" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H48" s="5">
         <v>60.11</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L46" t="s">
-        <v>445</v>
-      </c>
-      <c r="M46" s="16">
-        <f t="shared" si="0"/>
+      <c r="L48" t="s">
+        <v>439</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" si="3"/>
         <v>57.104499999999994</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N48" s="9">
         <f t="shared" si="1"/>
         <v>42.076999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C49" s="3">
         <v>1040</v>
       </c>
-      <c r="D47" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C123 &amp;".jpg"</f>
+      <c r="D49" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1040.jpg</v>
       </c>
-      <c r="E47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C123 &amp;"a" &amp;".jpg"</f>
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1040a.jpg</v>
       </c>
-      <c r="F47" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C47:C123 &amp;"b" &amp;".jpg"</f>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1040b.jpg</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H47" s="5">
+      <c r="G49" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H49" s="5">
         <v>132.77000000000001</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L47" t="s">
-        <v>446</v>
-      </c>
-      <c r="M47" s="16">
-        <f t="shared" si="0"/>
+      <c r="L49" t="s">
+        <v>440</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="3"/>
         <v>126.1315</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N49" s="9">
         <f t="shared" si="1"/>
         <v>92.939000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C50" s="3">
         <v>1041</v>
       </c>
-      <c r="D48" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C124 &amp;".jpg"</f>
+      <c r="D50" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1041.jpg</v>
       </c>
-      <c r="E48" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C124 &amp;"a" &amp;".jpg"</f>
+      <c r="E50" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1041a.jpg</v>
       </c>
-      <c r="F48" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C48:C124 &amp;"b" &amp;".jpg"</f>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1041b.jpg</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="G50" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H50" s="5">
         <v>83.57</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L48" t="s">
-        <v>447</v>
-      </c>
-      <c r="M48" s="16">
-        <f t="shared" si="0"/>
+      <c r="L50" t="s">
+        <v>441</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="3"/>
         <v>79.391499999999994</v>
       </c>
-      <c r="N48" s="16">
+      <c r="N50" s="9">
         <f t="shared" si="1"/>
         <v>58.498999999999988</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C51" s="3">
         <v>1042</v>
       </c>
-      <c r="D49" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C125 &amp;".jpg"</f>
+      <c r="D51" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042.jpg</v>
       </c>
-      <c r="E49" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C125 &amp;"a" &amp;".jpg"</f>
+      <c r="E51" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042a.jpg</v>
       </c>
-      <c r="F49" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C49:C125 &amp;"b" &amp;".jpg"</f>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1042b.jpg</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="G51" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H51" s="5">
         <v>41.79</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L49" t="s">
-        <v>448</v>
-      </c>
-      <c r="M49" s="16">
-        <f t="shared" si="0"/>
+      <c r="L51" t="s">
+        <v>442</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="3"/>
         <v>39.700499999999998</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N51" s="9">
         <f t="shared" si="1"/>
         <v>29.252999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C52" s="3">
         <v>1043</v>
       </c>
-      <c r="D50" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C126 &amp;".jpg"</f>
+      <c r="D52" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043.jpg</v>
       </c>
-      <c r="E50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C126 &amp;"a" &amp;".jpg"</f>
+      <c r="E52" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043a.jpg</v>
       </c>
-      <c r="F50" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C50:C126 &amp;"b" &amp;".jpg"</f>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1043b.jpg</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H50" s="5">
+      <c r="G52" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H52" s="5">
         <v>195.18</v>
       </c>
-      <c r="L50" t="s">
-        <v>449</v>
-      </c>
-      <c r="M50" s="16">
-        <f t="shared" si="0"/>
+      <c r="L52" t="s">
+        <v>443</v>
+      </c>
+      <c r="M52" s="9">
+        <f t="shared" si="3"/>
         <v>185.42099999999999</v>
       </c>
-      <c r="N50" s="16">
+      <c r="N52" s="9">
         <f t="shared" si="1"/>
         <v>136.626</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C53" s="3">
         <v>1044</v>
       </c>
-      <c r="D51" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C127 &amp;".jpg"</f>
+      <c r="D53" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044.jpg</v>
       </c>
-      <c r="E51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C127 &amp;"a" &amp;".jpg"</f>
+      <c r="E53" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044a.jpg</v>
       </c>
-      <c r="F51" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C51:C127 &amp;"b" &amp;".jpg"</f>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1044b.jpg</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="G53" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H53" s="5">
         <v>50.92</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="L51" t="s">
-        <v>450</v>
-      </c>
-      <c r="M51" s="16">
-        <f t="shared" si="0"/>
+      <c r="L53" t="s">
+        <v>444</v>
+      </c>
+      <c r="M53" s="9">
+        <f t="shared" si="3"/>
         <v>48.374000000000002</v>
       </c>
-      <c r="N51" s="16">
+      <c r="N53" s="9">
         <f t="shared" si="1"/>
         <v>35.643999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C54" s="3">
         <v>1045</v>
       </c>
-      <c r="D52" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C128 &amp;".jpg"</f>
+      <c r="D54" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045.jpg</v>
       </c>
-      <c r="E52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C128 &amp;"a" &amp;".jpg"</f>
+      <c r="E54" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045a.jpg</v>
       </c>
-      <c r="F52" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C52:C128 &amp;"b" &amp;".jpg"</f>
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1045b.jpg</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H52" s="5">
+      <c r="G54" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H54" s="5">
         <v>53.82</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L52" t="s">
-        <v>451</v>
-      </c>
-      <c r="M52" s="16">
-        <f t="shared" si="0"/>
+      <c r="L54" t="s">
+        <v>445</v>
+      </c>
+      <c r="M54" s="9">
+        <f t="shared" si="3"/>
         <v>51.128999999999998</v>
       </c>
-      <c r="N52" s="16">
+      <c r="N54" s="9">
         <f t="shared" si="1"/>
         <v>37.673999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C55" s="3">
         <v>1046</v>
       </c>
-      <c r="D53" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C129 &amp;".jpg"</f>
+      <c r="D55" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046.jpg</v>
       </c>
-      <c r="E53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C129 &amp;"a" &amp;".jpg"</f>
+      <c r="E55" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046a.jpg</v>
       </c>
-      <c r="F53" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C53:C129 &amp;"b" &amp;".jpg"</f>
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1046b.jpg</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H53" s="5">
+      <c r="G55" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H55" s="5">
         <v>53.82</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L53" t="s">
-        <v>452</v>
-      </c>
-      <c r="M53" s="16">
-        <f t="shared" si="0"/>
+      <c r="L55" t="s">
+        <v>446</v>
+      </c>
+      <c r="M55" s="9">
+        <f t="shared" si="3"/>
         <v>51.128999999999998</v>
       </c>
-      <c r="N53" s="16">
+      <c r="N55" s="9">
         <f t="shared" si="1"/>
         <v>37.673999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C56" s="3">
         <v>1047</v>
       </c>
-      <c r="D54" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C130 &amp;".jpg"</f>
+      <c r="D56" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047.jpg</v>
       </c>
-      <c r="E54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C130 &amp;"a" &amp;".jpg"</f>
+      <c r="E56" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047a.jpg</v>
       </c>
-      <c r="F54" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C54:C130 &amp;"b" &amp;".jpg"</f>
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1047b.jpg</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H54" s="6">
+      <c r="G56" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H56" s="6">
         <v>58.96</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L54" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="M54" s="16">
-        <f t="shared" si="0"/>
+      <c r="L56" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="M56" s="9">
+        <f t="shared" si="3"/>
         <v>56.012</v>
       </c>
-      <c r="N54" s="16">
+      <c r="N56" s="9">
         <f t="shared" si="1"/>
         <v>41.271999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C57" s="3">
         <v>1048</v>
       </c>
-      <c r="D55" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C131 &amp;".jpg"</f>
+      <c r="D57" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048.jpg</v>
       </c>
-      <c r="E55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C131 &amp;"a" &amp;".jpg"</f>
+      <c r="E57" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048a.jpg</v>
       </c>
-      <c r="F55" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C55:C131 &amp;"b" &amp;".jpg"</f>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1048b.jpg</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H55" s="5">
+      <c r="G57" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H57" s="5">
         <v>34.340000000000003</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L55" t="s">
-        <v>454</v>
-      </c>
-      <c r="M55" s="16">
-        <f t="shared" si="0"/>
+      <c r="L57" t="s">
+        <v>448</v>
+      </c>
+      <c r="M57" s="9">
+        <f t="shared" si="3"/>
         <v>32.623000000000005</v>
       </c>
-      <c r="N55" s="16">
+      <c r="N57" s="9">
         <f t="shared" si="1"/>
         <v>24.038</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C58" s="3">
         <v>1049</v>
       </c>
-      <c r="D56" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C132 &amp;".jpg"</f>
+      <c r="D58" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049.jpg</v>
       </c>
-      <c r="E56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C132 &amp;"a" &amp;".jpg"</f>
+      <c r="E58" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049a.jpg</v>
       </c>
-      <c r="F56" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C56:C132 &amp;"b" &amp;".jpg"</f>
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1049b.jpg</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H56" s="5">
+      <c r="G58" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H58" s="5">
         <v>34.340000000000003</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L56" t="s">
-        <v>455</v>
-      </c>
-      <c r="M56" s="16">
-        <f t="shared" si="0"/>
+      <c r="L58" t="s">
+        <v>449</v>
+      </c>
+      <c r="M58" s="9">
+        <f t="shared" si="3"/>
         <v>32.623000000000005</v>
       </c>
-      <c r="N56" s="16">
+      <c r="N58" s="9">
         <f t="shared" si="1"/>
         <v>24.038</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C59" s="3">
         <v>1050</v>
       </c>
-      <c r="D57" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C133 &amp;".jpg"</f>
+      <c r="D59" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050.jpg</v>
       </c>
-      <c r="E57" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C133 &amp;"a" &amp;".jpg"</f>
+      <c r="E59" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050a.jpg</v>
       </c>
-      <c r="F57" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C57:C133 &amp;"b" &amp;".jpg"</f>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1050b.jpg</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H57" s="5">
+      <c r="G59" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H59" s="5">
         <v>45.24</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L57" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="M57" s="16">
-        <f t="shared" si="0"/>
+      <c r="L59" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="M59" s="9">
+        <f t="shared" si="3"/>
         <v>42.978000000000002</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N59" s="9">
         <f t="shared" si="1"/>
         <v>31.667999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C60" s="3">
         <v>1051</v>
       </c>
-      <c r="D58" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C134 &amp;".jpg"</f>
+      <c r="D60" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051.jpg</v>
       </c>
-      <c r="E58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C134 &amp;"a" &amp;".jpg"</f>
+      <c r="E60" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051a.jpg</v>
       </c>
-      <c r="F58" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C58:C134 &amp;"b" &amp;".jpg"</f>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1051b.jpg</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H58" s="5">
+      <c r="G60" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="5">
         <v>52.68</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L58" t="s">
-        <v>457</v>
-      </c>
-      <c r="M58" s="16">
-        <f t="shared" si="0"/>
+      <c r="L60" t="s">
+        <v>451</v>
+      </c>
+      <c r="M60" s="9">
+        <f t="shared" si="3"/>
         <v>50.045999999999999</v>
       </c>
-      <c r="N58" s="16">
+      <c r="N60" s="9">
         <f t="shared" si="1"/>
         <v>36.875999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C61" s="3">
         <v>1052</v>
       </c>
-      <c r="D59" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C135 &amp;".jpg"</f>
+      <c r="D61" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052.jpg</v>
       </c>
-      <c r="E59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C135 &amp;"a" &amp;".jpg"</f>
+      <c r="E61" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052a.jpg</v>
       </c>
-      <c r="F59" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C59:C135 &amp;"b" &amp;".jpg"</f>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1052b.jpg</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H59" s="5">
+      <c r="G61" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H61" s="5">
         <v>45.24</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L59" t="s">
-        <v>458</v>
-      </c>
-      <c r="M59" s="16">
-        <f t="shared" si="0"/>
+      <c r="L61" t="s">
+        <v>452</v>
+      </c>
+      <c r="M61" s="9">
+        <f t="shared" si="3"/>
         <v>42.978000000000002</v>
       </c>
-      <c r="N59" s="16">
+      <c r="N61" s="9">
         <f t="shared" si="1"/>
         <v>31.667999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C62" s="3">
         <v>1053</v>
       </c>
-      <c r="D60" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C136 &amp;".jpg"</f>
+      <c r="D62" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1053.jpg</v>
       </c>
-      <c r="E60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C136 &amp;"a" &amp;".jpg"</f>
+      <c r="E62" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1053a.jpg</v>
       </c>
-      <c r="F60" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C60:C136 &amp;"b" &amp;".jpg"</f>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1053b.jpg</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H60" s="5">
+      <c r="G62" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H62" s="5">
         <v>47.53</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L60" t="s">
-        <v>459</v>
-      </c>
-      <c r="M60" s="16">
-        <f t="shared" si="0"/>
+      <c r="L62" t="s">
+        <v>453</v>
+      </c>
+      <c r="M62" s="9">
+        <f t="shared" si="3"/>
         <v>45.153500000000001</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N62" s="9">
         <f t="shared" si="1"/>
         <v>33.271000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C63" s="3">
         <v>1054</v>
       </c>
-      <c r="D61" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C137 &amp;".jpg"</f>
+      <c r="D63" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054.jpg</v>
       </c>
-      <c r="E61" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C137 &amp;"a" &amp;".jpg"</f>
+      <c r="E63" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054a.jpg</v>
       </c>
-      <c r="F61" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C61:C137 &amp;"b" &amp;".jpg"</f>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1054b.jpg</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H61" s="6">
+      <c r="G63" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H63" s="6">
         <v>34.340000000000003</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L61" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="M61" s="16">
-        <f t="shared" si="0"/>
+      <c r="L63" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="M63" s="9">
+        <f t="shared" si="3"/>
         <v>32.623000000000005</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N63" s="9">
         <f t="shared" si="1"/>
         <v>24.038</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C64" s="3">
         <v>1055</v>
       </c>
-      <c r="D62" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C62:C138 &amp;".jpg"</f>
+      <c r="D64" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1055.jpg</v>
       </c>
-      <c r="E62" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C62:C138 &amp;"b" &amp;".jpg"</f>
+      <c r="E64" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C138 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1055b.jpg</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H62" s="5">
+      <c r="G64" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H64" s="5">
         <v>13.76</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L62" t="s">
-        <v>461</v>
-      </c>
-      <c r="M62" s="16">
-        <f t="shared" si="0"/>
+      <c r="L64" t="s">
+        <v>455</v>
+      </c>
+      <c r="M64" s="9">
+        <f t="shared" si="3"/>
         <v>13.071999999999999</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N64" s="9">
         <f t="shared" si="1"/>
         <v>9.6319999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+    <row r="65" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C63" s="9">
+      <c r="C65" s="13">
         <v>1079</v>
       </c>
-      <c r="D63" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C139 &amp;".jpg"</f>
+      <c r="D65" s="14" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1079.jpg</v>
       </c>
-      <c r="E63" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C139 &amp;"a" &amp;".jpg"</f>
+      <c r="E65" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C139 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1079a.jpg</v>
       </c>
-      <c r="F63" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C63:C139 &amp;"b" &amp;".jpg"</f>
+      <c r="F65" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C139 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1079b.jpg</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="H63" s="12">
+      <c r="G65" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H65" s="16">
         <v>76.69</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="M63" s="16">
-        <f t="shared" si="0"/>
+      <c r="I65" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="M65" s="17">
+        <f t="shared" si="3"/>
         <v>72.855499999999992</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N65" s="17">
         <f t="shared" si="1"/>
         <v>53.682999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+    <row r="66" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C64" s="9">
+      <c r="C66" s="13">
         <v>1080</v>
       </c>
-      <c r="D64" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C140 &amp;".jpg"</f>
+      <c r="D66" s="14" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1080.jpg</v>
       </c>
-      <c r="E64" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C140 &amp;"a" &amp;".jpg"</f>
+      <c r="E66" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C140 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1080a.jpg</v>
       </c>
-      <c r="F64" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C64:C140 &amp;"b" &amp;".jpg"</f>
+      <c r="F66" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C140 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1080b.jpg</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="H64" s="12">
+      <c r="G66" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="H66" s="16">
         <v>76.69</v>
       </c>
-      <c r="I64" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="L64" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="M64" s="16">
-        <f t="shared" si="0"/>
+      <c r="I66" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="M66" s="17">
+        <f t="shared" si="3"/>
         <v>72.855499999999992</v>
       </c>
-      <c r="N64" s="16">
+      <c r="N66" s="17">
         <f t="shared" si="1"/>
         <v>53.682999999999993</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+    <row r="67" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C65" s="9">
+      <c r="C67" s="13">
         <v>1081</v>
       </c>
-      <c r="D65" s="10" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C141 &amp;".jpg"</f>
+      <c r="D67" s="14" t="str">
+        <f t="shared" si="6"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1081.jpg</v>
       </c>
-      <c r="E65" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C141 &amp;"a" &amp;".jpg"</f>
+      <c r="E67" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C141 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081a.jpg</v>
       </c>
-      <c r="F65" s="8" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C65:C141 &amp;"b" &amp;".jpg"</f>
+      <c r="F67" s="12" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C141 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1081b.jpg</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="H65" s="12">
+      <c r="G67" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="H67" s="16">
         <v>63.52</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="L65" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="M65" s="16">
-        <f t="shared" si="0"/>
+      <c r="I67" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="M67" s="17">
+        <f t="shared" si="3"/>
         <v>60.344000000000001</v>
       </c>
-      <c r="N65" s="16">
+      <c r="N67" s="17">
         <f t="shared" si="1"/>
         <v>44.463999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C68" s="3">
         <v>1056</v>
       </c>
-      <c r="D66" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C139 &amp;".jpg"</f>
+      <c r="D68" s="4" t="str">
+        <f t="shared" ref="D68:D83" si="9" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C139 &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056.jpg</v>
       </c>
-      <c r="E66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C139 &amp;"a" &amp;".jpg"</f>
+      <c r="E68" s="1" t="str">
+        <f t="shared" ref="E68:E73" si="10" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C139 &amp;"a" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056a.jpg</v>
       </c>
-      <c r="F66" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C66:C139 &amp;"b" &amp;".jpg"</f>
+      <c r="F68" s="1" t="str">
+        <f t="shared" ref="F68:F73" si="11" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C139 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1056b.jpg</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H66" s="5">
+      <c r="G68" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H68" s="5">
         <v>51.49</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L66" t="s">
-        <v>465</v>
-      </c>
-      <c r="M66" s="16">
-        <f t="shared" si="0"/>
+      <c r="L68" t="s">
+        <v>459</v>
+      </c>
+      <c r="M68" s="9">
+        <f t="shared" si="3"/>
         <v>48.915500000000002</v>
       </c>
-      <c r="N66" s="16">
+      <c r="N68" s="9">
         <f t="shared" si="1"/>
         <v>36.042999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1057</v>
-      </c>
-      <c r="D67" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C140 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
-      </c>
-      <c r="E67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C140 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
-      </c>
-      <c r="F67" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C67:C140 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H67" s="5">
-        <v>42.92</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L67" t="s">
-        <v>466</v>
-      </c>
-      <c r="M67" s="16">
-        <f t="shared" ref="M67:M83" si="2">H67 * 0.95</f>
-        <v>40.774000000000001</v>
-      </c>
-      <c r="N67" s="16">
-        <f t="shared" ref="N67:N83" si="3">H67 * 0.7</f>
-        <v>30.044</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1058</v>
-      </c>
-      <c r="D68" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C141 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
-      </c>
-      <c r="E68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C141 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
-      </c>
-      <c r="F68" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C68:C141 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H68" s="5">
-        <v>49.78</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L68" t="s">
-        <v>467</v>
-      </c>
-      <c r="M68" s="16">
-        <f t="shared" si="2"/>
-        <v>47.290999999999997</v>
-      </c>
-      <c r="N68" s="16">
-        <f t="shared" si="3"/>
-        <v>34.845999999999997</v>
-      </c>
-    </row>
     <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="3">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D69" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C142 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057.jpg</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C142 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
+        <f t="shared" si="10"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057a.jpg</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C69:C142 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1057b.jpg</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H69" s="5">
-        <v>53.25</v>
+        <v>42.92</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L69" t="s">
-        <v>468</v>
-      </c>
-      <c r="M69" s="16">
-        <f t="shared" si="2"/>
-        <v>50.587499999999999</v>
-      </c>
-      <c r="N69" s="16">
-        <f t="shared" si="3"/>
-        <v>37.274999999999999</v>
+        <v>460</v>
+      </c>
+      <c r="M69" s="9">
+        <f t="shared" ref="M69:M97" si="12">H69 * 0.95</f>
+        <v>40.774000000000001</v>
+      </c>
+      <c r="N69" s="9">
+        <f t="shared" ref="N69:N97" si="13">H69 * 0.7</f>
+        <v>30.044</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" s="3">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D70" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C143 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058.jpg</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C143 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
+        <f t="shared" si="10"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058a.jpg</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C70:C143 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1058b.jpg</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H70" s="5">
-        <v>17.739999999999998</v>
+        <v>49.78</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L70" t="s">
-        <v>469</v>
-      </c>
-      <c r="M70" s="16">
-        <f t="shared" si="2"/>
-        <v>16.852999999999998</v>
-      </c>
-      <c r="N70" s="16">
-        <f t="shared" si="3"/>
-        <v>12.417999999999997</v>
+        <v>461</v>
+      </c>
+      <c r="M70" s="9">
+        <f t="shared" si="12"/>
+        <v>47.290999999999997</v>
+      </c>
+      <c r="N70" s="9">
+        <f t="shared" si="13"/>
+        <v>34.845999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>137</v>
+      <c r="A71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C71" s="3">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D71" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C144 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059.jpg</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C144 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
+        <f t="shared" si="10"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059a.jpg</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C71:C144 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1059b.jpg</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H71" s="6">
-        <v>34.340000000000003</v>
+        <v>322</v>
+      </c>
+      <c r="H71" s="5">
+        <v>53.25</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L71" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="M71" s="16">
-        <f t="shared" si="2"/>
-        <v>32.623000000000005</v>
-      </c>
-      <c r="N71" s="16">
-        <f t="shared" si="3"/>
-        <v>24.038</v>
+        <v>251</v>
+      </c>
+      <c r="L71" t="s">
+        <v>462</v>
+      </c>
+      <c r="M71" s="9">
+        <f t="shared" si="12"/>
+        <v>50.587499999999999</v>
+      </c>
+      <c r="N71" s="9">
+        <f t="shared" si="13"/>
+        <v>37.274999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1060</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060.jpg</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060a.jpg</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1060b.jpg</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H72" s="5">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L72" t="s">
+        <v>463</v>
+      </c>
+      <c r="M72" s="9">
+        <f t="shared" si="12"/>
+        <v>16.852999999999998</v>
+      </c>
+      <c r="N72" s="9">
+        <f t="shared" si="13"/>
+        <v>12.417999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1061</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061.jpg</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061a.jpg</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1061b.jpg</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H73" s="6">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="M73" s="9">
+        <f t="shared" si="12"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="N73" s="9">
+        <f t="shared" si="13"/>
+        <v>24.038</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C74" s="3">
         <v>1063</v>
       </c>
-      <c r="D72" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C145 &amp;".jpg"</f>
+      <c r="D74" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>https://iglika.me/products_img/Product_details_JPG/1063.jpg</v>
       </c>
-      <c r="E72" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C72:C145 &amp;"b" &amp;".jpg"</f>
+      <c r="E74" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C145 &amp;"b" &amp;".jpg"</f>
         <v>https://iglika.me/products_img/Product_details_JPG/1063b.jpg</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H72" s="5">
+      <c r="G74" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H74" s="5">
         <v>1116.3399999999999</v>
       </c>
-      <c r="L72" t="s">
-        <v>471</v>
-      </c>
-      <c r="M72" s="16">
-        <f t="shared" si="2"/>
+      <c r="L74" t="s">
+        <v>465</v>
+      </c>
+      <c r="M74" s="9">
+        <f t="shared" si="12"/>
         <v>1060.5229999999999</v>
       </c>
-      <c r="N72" s="16">
-        <f t="shared" si="3"/>
+      <c r="N74" s="9">
+        <f t="shared" si="13"/>
         <v>781.43799999999987</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1064</v>
-      </c>
-      <c r="D73" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C146 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064.jpg</v>
-      </c>
-      <c r="E73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C146 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064a.jpg</v>
-      </c>
-      <c r="F73" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C73:C146 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H73" s="5">
-        <v>75.19</v>
-      </c>
-      <c r="L73" t="s">
-        <v>472</v>
-      </c>
-      <c r="M73" s="16">
-        <f t="shared" si="2"/>
-        <v>71.430499999999995</v>
-      </c>
-      <c r="N73" s="16">
-        <f t="shared" si="3"/>
-        <v>52.632999999999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1065</v>
-      </c>
-      <c r="D74" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C147 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
-      </c>
-      <c r="E74" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C74:C147 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="L74" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C75" s="3">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D75" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C148 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064.jpg</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C148 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C146 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064a.jpg</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C75:C146 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1064b.jpg</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H75" s="5">
-        <v>57.23</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>259</v>
+        <v>75.19</v>
       </c>
       <c r="L75" t="s">
-        <v>474</v>
-      </c>
-      <c r="M75" s="16">
-        <f t="shared" si="2"/>
-        <v>54.368499999999997</v>
-      </c>
-      <c r="N75" s="16">
-        <f t="shared" si="3"/>
-        <v>40.060999999999993</v>
+        <v>466</v>
+      </c>
+      <c r="M75" s="9">
+        <f t="shared" si="12"/>
+        <v>71.430499999999995</v>
+      </c>
+      <c r="N75" s="9">
+        <f t="shared" si="13"/>
+        <v>52.632999999999996</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>142</v>
+      <c r="A76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C76" s="3">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D76" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C149 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1065.jpg</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C149 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C76:C147 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1065b.jpg</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H76" s="5">
-        <v>57.23</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="L76" t="s">
-        <v>475</v>
-      </c>
-      <c r="M76" s="16">
-        <f t="shared" si="2"/>
-        <v>54.368499999999997</v>
-      </c>
-      <c r="N76" s="16">
-        <f t="shared" si="3"/>
-        <v>40.060999999999993</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C77" s="3">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D77" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C150 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066.jpg</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C150 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
-      </c>
-      <c r="F77" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C150 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C77:C148 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1066b.jpg</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H77" s="5">
-        <v>127.62</v>
+        <v>57.23</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L77" t="s">
-        <v>476</v>
-      </c>
-      <c r="M77" s="16">
-        <f t="shared" si="2"/>
-        <v>121.239</v>
-      </c>
-      <c r="N77" s="16">
-        <f t="shared" si="3"/>
-        <v>89.334000000000003</v>
+        <v>468</v>
+      </c>
+      <c r="M77" s="9">
+        <f t="shared" si="12"/>
+        <v>54.368499999999997</v>
+      </c>
+      <c r="N77" s="9">
+        <f t="shared" si="13"/>
+        <v>40.060999999999993</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C78" s="3">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D78" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C151 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067.jpg</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C151 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
-      </c>
-      <c r="F78" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C151 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C78:C149 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1067b.jpg</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H78" s="5">
-        <v>60.11</v>
+        <v>57.23</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L78" t="s">
-        <v>477</v>
-      </c>
-      <c r="M78" s="16">
-        <f t="shared" si="2"/>
-        <v>57.104499999999994</v>
-      </c>
-      <c r="N78" s="16">
-        <f t="shared" si="3"/>
-        <v>42.076999999999998</v>
+        <v>469</v>
+      </c>
+      <c r="M78" s="9">
+        <f t="shared" si="12"/>
+        <v>54.368499999999997</v>
+      </c>
+      <c r="N78" s="9">
+        <f t="shared" si="13"/>
+        <v>40.060999999999993</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" s="3">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D79" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C152 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068.jpg</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C152 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C150 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068a.jpg</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C152 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C79:C150 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1068b.jpg</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H79" s="5">
-        <v>86.44</v>
+        <v>127.62</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L79" t="s">
-        <v>478</v>
-      </c>
-      <c r="M79" s="16">
-        <f t="shared" si="2"/>
-        <v>82.117999999999995</v>
-      </c>
-      <c r="N79" s="16">
-        <f t="shared" si="3"/>
-        <v>60.507999999999996</v>
+        <v>470</v>
+      </c>
+      <c r="M79" s="9">
+        <f t="shared" si="12"/>
+        <v>121.239</v>
+      </c>
+      <c r="N79" s="9">
+        <f t="shared" si="13"/>
+        <v>89.334000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C80" s="3">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D80" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C153 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1071.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069.jpg</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C153 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C151 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069a.jpg</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C153 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C80:C151 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1069b.jpg</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H80" s="5">
-        <v>10.31</v>
+        <v>60.11</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L80" t="s">
-        <v>479</v>
-      </c>
-      <c r="M80" s="16">
-        <f t="shared" si="2"/>
-        <v>9.7944999999999993</v>
-      </c>
-      <c r="N80" s="16">
-        <f t="shared" si="3"/>
-        <v>7.2169999999999996</v>
+        <v>471</v>
+      </c>
+      <c r="M80" s="9">
+        <f t="shared" si="12"/>
+        <v>57.104499999999994</v>
+      </c>
+      <c r="N80" s="9">
+        <f t="shared" si="13"/>
+        <v>42.076999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C81" s="3">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D81" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C154 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070.jpg</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C154 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C152 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070a.jpg</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C154 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C81:C152 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1070b.jpg</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H81" s="5">
-        <v>320.5</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>337</v>
+        <v>86.44</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="L81" t="s">
-        <v>480</v>
-      </c>
-      <c r="M81" s="16">
-        <f t="shared" si="2"/>
-        <v>304.47499999999997</v>
-      </c>
-      <c r="N81" s="16">
-        <f t="shared" si="3"/>
-        <v>224.35</v>
+        <v>472</v>
+      </c>
+      <c r="M81" s="9">
+        <f t="shared" si="12"/>
+        <v>82.117999999999995</v>
+      </c>
+      <c r="N81" s="9">
+        <f t="shared" si="13"/>
+        <v>60.507999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>398</v>
+        <v>146</v>
       </c>
       <c r="C82" s="3">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D82" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C155 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1071.jpg</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C155 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C153 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1071a.jpg</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C155 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C82:C153 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1071b.jpg</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H82" s="5">
-        <v>270.32</v>
+        <v>10.31</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="L82" t="s">
-        <v>481</v>
-      </c>
-      <c r="M82" s="16">
-        <f t="shared" si="2"/>
-        <v>256.80399999999997</v>
-      </c>
-      <c r="N82" s="16">
-        <f t="shared" si="3"/>
-        <v>189.22399999999999</v>
+        <v>473</v>
+      </c>
+      <c r="M82" s="9">
+        <f t="shared" si="12"/>
+        <v>9.7944999999999993</v>
+      </c>
+      <c r="N82" s="9">
+        <f t="shared" si="13"/>
+        <v>7.2169999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="C83" s="3">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D83" s="4" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C156 &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074.jpg</v>
+        <f t="shared" si="9"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072.jpg</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C156 &amp;"a" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074a.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C154 &amp;"a" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072a.jpg</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C156 &amp;"b" &amp;".jpg"</f>
-        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+        <f xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C83:C154 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1072b.jpg</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>335</v>
       </c>
       <c r="H83" s="5">
+        <v>320.5</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L83" t="s">
+        <v>474</v>
+      </c>
+      <c r="M83" s="9">
+        <f t="shared" si="12"/>
+        <v>304.47499999999997</v>
+      </c>
+      <c r="N83" s="9">
+        <f t="shared" si="13"/>
+        <v>224.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="C84" s="22">
+        <v>1083</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="F84" s="21" t="str">
+        <f t="shared" ref="F84:F97" si="14" xml:space="preserve"> "https://iglika.me/products_img/Product_details_JPG/" &amp; C84:C157 &amp;"b" &amp;".jpg"</f>
+        <v>https://iglika.me/products_img/Product_details_JPG/1083b.jpg</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="H84" s="25">
+        <v>555.54</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="J84" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="L84" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="M84" s="27">
+        <f t="shared" si="12"/>
+        <v>527.76299999999992</v>
+      </c>
+      <c r="N84" s="27">
+        <f t="shared" si="13"/>
+        <v>388.87799999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C85" s="22">
+        <v>1096</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="F85" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1096b.jpg</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="H85" s="25">
+        <v>555.54</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="L85" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="M85" s="27">
+        <f t="shared" si="12"/>
+        <v>527.76299999999992</v>
+      </c>
+      <c r="N85" s="27">
+        <f t="shared" si="13"/>
+        <v>388.87799999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C86" s="22">
+        <v>1074</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="F86" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1074b.jpg</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H86" s="25">
         <v>337.32</v>
       </c>
-      <c r="L83" t="s">
+      <c r="I86" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="L86" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="M86" s="27">
+        <f t="shared" si="12"/>
+        <v>320.45399999999995</v>
+      </c>
+      <c r="N86" s="27">
+        <f t="shared" si="13"/>
+        <v>236.12399999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C87" s="22">
+        <v>1086</v>
+      </c>
+      <c r="D87" s="23"/>
+      <c r="F87" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1086b.jpg</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H87" s="25">
+        <v>337.32</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="J87" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="L87" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="M87" s="27">
+        <f t="shared" si="12"/>
+        <v>320.45399999999995</v>
+      </c>
+      <c r="N87" s="27">
+        <f t="shared" si="13"/>
+        <v>236.12399999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="22">
+        <v>1087</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="F88" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1087b.jpg</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="H88" s="25">
+        <v>337.32</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="J88" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="L88" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="M88" s="27">
+        <f t="shared" si="12"/>
+        <v>320.45399999999995</v>
+      </c>
+      <c r="N88" s="27">
+        <f t="shared" si="13"/>
+        <v>236.12399999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C89" s="22">
+        <v>1088</v>
+      </c>
+      <c r="D89" s="23"/>
+      <c r="F89" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1088b.jpg</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="H89" s="25">
+        <v>337.32</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="J89" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="L89" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="M89" s="27">
+        <f t="shared" si="12"/>
+        <v>320.45399999999995</v>
+      </c>
+      <c r="N89" s="27">
+        <f t="shared" si="13"/>
+        <v>236.12399999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C90" s="22">
+        <v>1089</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="F90" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1089b.jpg</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="H90" s="25">
+        <v>337.32</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="J90" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="L90" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="M90" s="27">
+        <f t="shared" si="12"/>
+        <v>320.45399999999995</v>
+      </c>
+      <c r="N90" s="27">
+        <f t="shared" si="13"/>
+        <v>236.12399999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="M83" s="16">
-        <f t="shared" si="2"/>
+      <c r="B91" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C91" s="22">
+        <v>1090</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="F91" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1090b.jpg</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="H91" s="25">
+        <v>337.32</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="J91" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="L91" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="M91" s="27">
+        <f t="shared" si="12"/>
         <v>320.45399999999995</v>
       </c>
-      <c r="N83" s="16">
-        <f t="shared" si="3"/>
+      <c r="N91" s="27">
+        <f t="shared" si="13"/>
         <v>236.12399999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="C92" s="22">
+        <v>1073</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="F92" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1073b.jpg</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H92" s="25">
+        <v>270.32</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="J92" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="L92" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="M92" s="27">
+        <f t="shared" si="12"/>
+        <v>256.80399999999997</v>
+      </c>
+      <c r="N92" s="27">
+        <f t="shared" si="13"/>
+        <v>189.22399999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="C93" s="22">
+        <v>1091</v>
+      </c>
+      <c r="D93" s="23"/>
+      <c r="F93" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1091b.jpg</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H93" s="25">
+        <v>270.32</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="J93" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="L93" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="M93" s="27">
+        <f t="shared" si="12"/>
+        <v>256.80399999999997</v>
+      </c>
+      <c r="N93" s="27">
+        <f t="shared" si="13"/>
+        <v>189.22399999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="C94" s="22">
+        <v>1092</v>
+      </c>
+      <c r="D94" s="23"/>
+      <c r="F94" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1092b.jpg</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H94" s="25">
+        <v>270.32</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="L94" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="M94" s="27">
+        <f t="shared" si="12"/>
+        <v>256.80399999999997</v>
+      </c>
+      <c r="N94" s="27">
+        <f t="shared" si="13"/>
+        <v>189.22399999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C95" s="22">
+        <v>1093</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="F95" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1093b.jpg</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H95" s="25">
+        <v>270.32</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="J95" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="L95" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="M95" s="27">
+        <f t="shared" si="12"/>
+        <v>256.80399999999997</v>
+      </c>
+      <c r="N95" s="27">
+        <f t="shared" si="13"/>
+        <v>189.22399999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C96" s="22">
+        <v>1094</v>
+      </c>
+      <c r="D96" s="23"/>
+      <c r="F96" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1094b.jpg</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H96" s="25">
+        <v>270.32</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="J96" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="L96" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="M96" s="27">
+        <f t="shared" si="12"/>
+        <v>256.80399999999997</v>
+      </c>
+      <c r="N96" s="27">
+        <f t="shared" si="13"/>
+        <v>189.22399999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="22">
+        <v>1095</v>
+      </c>
+      <c r="D97" s="23"/>
+      <c r="F97" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>https://iglika.me/products_img/Product_details_JPG/1095b.jpg</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H97" s="25">
+        <v>270.32</v>
+      </c>
+      <c r="I97" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="J97" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="L97" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="M97" s="27">
+        <f t="shared" si="12"/>
+        <v>256.80399999999997</v>
+      </c>
+      <c r="N97" s="27">
+        <f t="shared" si="13"/>
+        <v>189.22399999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L57" r:id="rId1"/>
-    <hyperlink ref="L20" r:id="rId2"/>
+    <hyperlink ref="L59" r:id="rId1"/>
+    <hyperlink ref="L21" r:id="rId2"/>
+    <hyperlink ref="J84" r:id="rId3"/>
+    <hyperlink ref="J85" r:id="rId4"/>
+    <hyperlink ref="J92" r:id="rId5"/>
+    <hyperlink ref="J93" r:id="rId6"/>
+    <hyperlink ref="J94" r:id="rId7"/>
+    <hyperlink ref="J95" r:id="rId8"/>
+    <hyperlink ref="J96" r:id="rId9"/>
+    <hyperlink ref="J97" r:id="rId10"/>
+    <hyperlink ref="L29" r:id="rId11"/>
+    <hyperlink ref="L10" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>